--- a/data/SaabCIBAdmin.xlsx
+++ b/data/SaabCIBAdmin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspacegit\version 2\GitLabWorkSpace\SAAB_Ajman_AdminPOM\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspacegit\version 2\GitLabWorkSpace\SabbAjmanAdmin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F625A0A0-4446-4952-AFFB-CAAA774980E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90F344D-64F9-47C1-875F-E0D53887C49A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="330">
   <si>
     <t>Testcasename-Create Bank User</t>
   </si>
@@ -973,73 +973,67 @@
     </r>
   </si>
   <si>
-    <t>testqa31b</t>
-  </si>
-  <si>
-    <t>878686914'</t>
-  </si>
-  <si>
-    <t>testcb@mailinator.com</t>
-  </si>
-  <si>
-    <t>12343515'</t>
-  </si>
-  <si>
-    <t>testri2m</t>
-  </si>
-  <si>
-    <t>Admin1016</t>
+    <t>31'</t>
+  </si>
+  <si>
+    <t>29'</t>
+  </si>
+  <si>
+    <t>30'</t>
+  </si>
+  <si>
+    <t>878686916'</t>
+  </si>
+  <si>
+    <t>testce@mailinator.com</t>
+  </si>
+  <si>
+    <t>12343517'</t>
+  </si>
+  <si>
+    <t>testqa31e</t>
+  </si>
+  <si>
+    <t>testri2o</t>
+  </si>
+  <si>
+    <t>Admin1018</t>
   </si>
   <si>
     <t>99'</t>
   </si>
   <si>
-    <t>de074</t>
-  </si>
-  <si>
-    <t>deartabK</t>
-  </si>
-  <si>
-    <t>saudhioqbdK</t>
-  </si>
-  <si>
-    <t>saudhirid</t>
-  </si>
-  <si>
-    <t>deartabk</t>
-  </si>
-  <si>
-    <t>saudhioqbdk</t>
-  </si>
-  <si>
-    <t>31'</t>
-  </si>
-  <si>
-    <t>27'</t>
-  </si>
-  <si>
-    <t>28'</t>
-  </si>
-  <si>
-    <t>testgqa23</t>
-  </si>
-  <si>
-    <t>testqagb</t>
-  </si>
-  <si>
-    <t>testuqc</t>
-  </si>
-  <si>
-    <t>testadws38</t>
-  </si>
-  <si>
-    <t>123411618755'</t>
-  </si>
-  <si>
-    <t>testadwsl28@mailinator.com</t>
-  </si>
-  <si>
-    <t>1234126871'</t>
+    <t>de076</t>
+  </si>
+  <si>
+    <t>deartabn</t>
+  </si>
+  <si>
+    <t>saudhioqbdn</t>
+  </si>
+  <si>
+    <t>saudhirig</t>
+  </si>
+  <si>
+    <t>testgqa28</t>
+  </si>
+  <si>
+    <t>testqagd</t>
+  </si>
+  <si>
+    <t>testuqe</t>
+  </si>
+  <si>
+    <t>testadws41</t>
+  </si>
+  <si>
+    <t>123411618757'</t>
+  </si>
+  <si>
+    <t>testadwsl31@mailinator.com</t>
+  </si>
+  <si>
+    <t>1234126874'</t>
   </si>
 </sst>
 </file>
@@ -1709,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="B153" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1817,19 +1811,19 @@
         <v>22</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
@@ -1937,19 +1931,19 @@
         <v>22</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>24</v>
@@ -2071,7 +2065,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>24</v>
@@ -2172,7 +2166,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>24</v>
@@ -2273,7 +2267,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>24</v>
@@ -2576,7 +2570,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>24</v>
@@ -2704,7 +2698,7 @@
         <v>22</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>48</v>
@@ -2813,7 +2807,7 @@
         <v>22</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F31" s="21" t="s">
         <v>48</v>
@@ -2995,13 +2989,13 @@
         <v>22</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F37" s="21" t="s">
         <v>48</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>58</v>
@@ -3106,7 +3100,7 @@
         <v>22</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F40" s="21" t="s">
         <v>59</v>
@@ -3211,7 +3205,7 @@
         <v>22</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F43" s="21" t="s">
         <v>59</v>
@@ -3318,7 +3312,7 @@
         <v>22</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F46" s="21" t="s">
         <v>48</v>
@@ -3435,7 +3429,7 @@
         <v>73</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>74</v>
@@ -3548,13 +3542,13 @@
         <v>22</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>81</v>
@@ -3566,7 +3560,7 @@
         <v>83</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L52" s="38" t="s">
         <v>24</v>
@@ -3675,7 +3669,7 @@
         <v>22</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F55" s="14" t="s">
         <v>320</v>
@@ -3693,7 +3687,7 @@
         <v>87</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L55" s="38" t="s">
         <v>24</v>
@@ -3702,7 +3696,7 @@
         <v>24</v>
       </c>
       <c r="N55" s="14" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O55" s="17" t="s">
         <v>25</v>
@@ -3792,10 +3786,10 @@
         <v>22</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>24</v>
@@ -4253,7 +4247,7 @@
         <v>118</v>
       </c>
       <c r="L70" s="14" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="M70" s="17" t="s">
         <v>25</v>
@@ -4335,7 +4329,7 @@
         <v>123</v>
       </c>
       <c r="H72" s="43" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="I72" s="30" t="s">
         <v>24</v>
@@ -4431,7 +4425,7 @@
         <v>24</v>
       </c>
       <c r="J74" s="43" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="K74" s="17" t="s">
         <v>25</v>
@@ -5802,10 +5796,10 @@
         <v>22</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G110" s="59" t="s">
         <v>81</v>
@@ -5913,10 +5907,10 @@
         <v>22</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G113" s="59" t="s">
         <v>81</v>
@@ -5928,7 +5922,7 @@
         <v>24</v>
       </c>
       <c r="J113" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K113" s="17" t="s">
         <v>25</v>
@@ -6022,10 +6016,10 @@
         <v>22</v>
       </c>
       <c r="E116" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F116" s="14" t="s">
         <v>325</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>327</v>
       </c>
       <c r="G116" s="38" t="s">
         <v>24</v>
@@ -6922,16 +6916,16 @@
         <v>22</v>
       </c>
       <c r="E138" s="44" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>239</v>
       </c>
       <c r="G138" s="44" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H138" s="61" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I138" s="6" t="s">
         <v>81</v>
@@ -6949,7 +6943,7 @@
         <v>241</v>
       </c>
       <c r="N138" s="44" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O138" s="4" t="s">
         <v>213</v>
@@ -7071,16 +7065,16 @@
         <v>22</v>
       </c>
       <c r="E141" s="44" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>244</v>
       </c>
       <c r="G141" s="44" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H141" s="61" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>81</v>
@@ -7098,7 +7092,7 @@
         <v>241</v>
       </c>
       <c r="N141" s="44" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O141" s="4" t="s">
         <v>213</v>
@@ -7198,7 +7192,7 @@
         <v>22</v>
       </c>
       <c r="E144" s="44" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F144" s="38" t="s">
         <v>24</v>
@@ -7326,7 +7320,7 @@
         <v>22</v>
       </c>
       <c r="E148" s="44" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F148" s="38" t="s">
         <v>24</v>
@@ -7431,7 +7425,7 @@
         <v>22</v>
       </c>
       <c r="E151" s="44" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F151" s="38" t="s">
         <v>24</v>
@@ -7536,7 +7530,7 @@
         <v>22</v>
       </c>
       <c r="E154" s="44" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F154" s="38" t="s">
         <v>24</v>
@@ -7641,7 +7635,7 @@
         <v>22</v>
       </c>
       <c r="E157" s="44" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F157" s="38" t="s">
         <v>24</v>

--- a/data/SaabCIBAdmin.xlsx
+++ b/data/SaabCIBAdmin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspacegit\version 2\GitLabWorkSpace\SabbAjmanAdmin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90F344D-64F9-47C1-875F-E0D53887C49A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A96B9A1-3584-48A3-869A-814485B82828}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -982,58 +982,58 @@
     <t>30'</t>
   </si>
   <si>
-    <t>878686916'</t>
-  </si>
-  <si>
-    <t>testce@mailinator.com</t>
-  </si>
-  <si>
-    <t>12343517'</t>
-  </si>
-  <si>
-    <t>testqa31e</t>
-  </si>
-  <si>
-    <t>testri2o</t>
-  </si>
-  <si>
-    <t>Admin1018</t>
-  </si>
-  <si>
-    <t>99'</t>
-  </si>
-  <si>
-    <t>de076</t>
-  </si>
-  <si>
-    <t>deartabn</t>
-  </si>
-  <si>
-    <t>saudhioqbdn</t>
-  </si>
-  <si>
-    <t>saudhirig</t>
-  </si>
-  <si>
-    <t>testgqa28</t>
-  </si>
-  <si>
-    <t>testqagd</t>
-  </si>
-  <si>
-    <t>testuqe</t>
-  </si>
-  <si>
-    <t>testadws41</t>
-  </si>
-  <si>
-    <t>123411618757'</t>
-  </si>
-  <si>
-    <t>testadwsl31@mailinator.com</t>
-  </si>
-  <si>
-    <t>1234126874'</t>
+    <t>testqa31g</t>
+  </si>
+  <si>
+    <t>878686917'</t>
+  </si>
+  <si>
+    <t>testcf@mailinator.com</t>
+  </si>
+  <si>
+    <t>12343518'</t>
+  </si>
+  <si>
+    <t>testri2q</t>
+  </si>
+  <si>
+    <t>Admin1020</t>
+  </si>
+  <si>
+    <t>98'</t>
+  </si>
+  <si>
+    <t>de077</t>
+  </si>
+  <si>
+    <t>deartabo</t>
+  </si>
+  <si>
+    <t>saudhioqbdo</t>
+  </si>
+  <si>
+    <t>saudhirih</t>
+  </si>
+  <si>
+    <t>testgqa30</t>
+  </si>
+  <si>
+    <t>testqage</t>
+  </si>
+  <si>
+    <t>testuqf</t>
+  </si>
+  <si>
+    <t>testadws42</t>
+  </si>
+  <si>
+    <t>123411618758'</t>
+  </si>
+  <si>
+    <t>testadwsl32@mailinator.com</t>
+  </si>
+  <si>
+    <t>1234126876'</t>
   </si>
 </sst>
 </file>
@@ -1703,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B153" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1811,19 +1811,19 @@
         <v>22</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
@@ -1931,19 +1931,19 @@
         <v>22</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>24</v>
@@ -2065,7 +2065,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>24</v>
@@ -2166,7 +2166,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>24</v>
@@ -2267,7 +2267,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>24</v>
@@ -2570,7 +2570,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>24</v>
